--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DDC0BF-1C7A-4076-BC46-D49BF97D0DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C76922E-5EC8-4E74-83DA-B22BA80889BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="105" windowWidth="18165" windowHeight="15375" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="6645" yWindow="15" windowWidth="24405" windowHeight="15375" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -163,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,12 +175,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -338,10 +332,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$30</c:f>
+                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$31</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="29"/>
+                  <c:ptCount val="30"/>
                   <c:pt idx="0">
                     <c:v>1511.7424598056805</c:v>
                   </c:pt>
@@ -429,15 +423,18 @@
                   <c:pt idx="28">
                     <c:v>113528.11503984376</c:v>
                   </c:pt>
+                  <c:pt idx="29">
+                    <c:v>120869.2976421225</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$30</c:f>
+                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$31</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="29"/>
+                  <c:ptCount val="30"/>
                   <c:pt idx="0">
                     <c:v>1511.7424598056805</c:v>
                   </c:pt>
@@ -525,6 +522,9 @@
                   <c:pt idx="28">
                     <c:v>113528.11503984376</c:v>
                   </c:pt>
+                  <c:pt idx="29">
+                    <c:v>120869.2976421225</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -544,10 +544,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Estimated PS VR2 Sales'!$A$2:$A$30</c:f>
+              <c:f>'Estimated PS VR2 Sales'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44979.791666666664</c:v>
                 </c:pt>
@@ -634,16 +634,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45201</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Estimated PS VR2 Sales'!$D$2:$D$30</c:f>
+              <c:f>'Estimated PS VR2 Sales'!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>437221.74996356922</c:v>
                 </c:pt>
@@ -730,6 +733,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>838458.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>853664.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,6 +762,7 @@
         <c:axId val="1022667008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45218"/>
           <c:min val="44978"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9678,7 +9685,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9720,15 +9727,15 @@
         <v>436152.78661883302</v>
       </c>
       <c r="D2" s="17">
-        <f>AVERAGE(B2:C2)</f>
+        <f t="shared" ref="D2:D16" si="0">AVERAGE(B2:C2)</f>
         <v>437221.74996356922</v>
       </c>
       <c r="E2" s="15">
-        <f>STDEV(B2:C2)*2</f>
+        <f t="shared" ref="E2:E16" si="1">STDEV(B2:C2)*2</f>
         <v>3023.484919611361</v>
       </c>
       <c r="F2" s="15">
-        <f>STDEV(B2:C2)</f>
+        <f t="shared" ref="F2:F16" si="2">STDEV(B2:C2)</f>
         <v>1511.7424598056805</v>
       </c>
     </row>
@@ -9743,15 +9750,15 @@
         <v>504280.48190166097</v>
       </c>
       <c r="D3" s="17">
-        <f>AVERAGE(B3:C3)</f>
+        <f t="shared" si="0"/>
         <v>502628.310008378</v>
       </c>
       <c r="E3" s="15">
-        <f>STDEV(B3:C3)*2</f>
+        <f t="shared" si="1"/>
         <v>4673.0477977048968</v>
       </c>
       <c r="F3" s="15">
-        <f>STDEV(B3:C3)</f>
+        <f t="shared" si="2"/>
         <v>2336.5238988524484</v>
       </c>
     </row>
@@ -9766,15 +9773,15 @@
         <v>533696.10593416519</v>
       </c>
       <c r="D4" s="17">
-        <f>AVERAGE(B4:C4)</f>
+        <f t="shared" si="0"/>
         <v>533344.70188799629</v>
       </c>
       <c r="E4" s="15">
-        <f>STDEV(B4:C4)*2</f>
+        <f t="shared" si="1"/>
         <v>993.92073592967949</v>
       </c>
       <c r="F4" s="15">
-        <f>STDEV(B4:C4)</f>
+        <f t="shared" si="2"/>
         <v>496.96036796483975</v>
       </c>
     </row>
@@ -9789,15 +9796,15 @@
         <v>549930.20032946218</v>
       </c>
       <c r="D5" s="17">
-        <f>AVERAGE(B5:C5)</f>
+        <f t="shared" si="0"/>
         <v>552711.02142206416</v>
       </c>
       <c r="E5" s="15">
-        <f>STDEV(B5:C5)*2</f>
+        <f t="shared" si="1"/>
         <v>7865.3498073819474</v>
       </c>
       <c r="F5" s="15">
-        <f>STDEV(B5:C5)</f>
+        <f t="shared" si="2"/>
         <v>3932.6749036909737</v>
       </c>
     </row>
@@ -9812,15 +9819,15 @@
         <v>570604.38891834486</v>
       </c>
       <c r="D6" s="17">
-        <f>AVERAGE(B6:C6)</f>
+        <f t="shared" si="0"/>
         <v>571084.21920117619</v>
       </c>
       <c r="E6" s="15">
-        <f>STDEV(B6:C6)*2</f>
+        <f t="shared" si="1"/>
         <v>1357.1649872347748</v>
       </c>
       <c r="F6" s="15">
-        <f>STDEV(B6:C6)</f>
+        <f t="shared" si="2"/>
         <v>678.5824936173874</v>
       </c>
     </row>
@@ -9835,15 +9842,15 @@
         <v>582537.14206360595</v>
       </c>
       <c r="D7" s="17">
-        <f>AVERAGE(B7:C7)</f>
+        <f t="shared" si="0"/>
         <v>583610.55039985222</v>
       </c>
       <c r="E7" s="15">
-        <f>STDEV(B7:C7)*2</f>
+        <f t="shared" si="1"/>
         <v>3036.0572541674637</v>
       </c>
       <c r="F7" s="15">
-        <f>STDEV(B7:C7)</f>
+        <f t="shared" si="2"/>
         <v>1518.0286270837319</v>
       </c>
     </row>
@@ -9858,15 +9865,15 @@
         <v>592527.35399917339</v>
       </c>
       <c r="D8" s="17">
-        <f>AVERAGE(B8:C8)</f>
+        <f t="shared" si="0"/>
         <v>594281.1942206258</v>
       </c>
       <c r="E8" s="15">
-        <f>STDEV(B8:C8)*2</f>
+        <f t="shared" si="1"/>
         <v>4960.6092548270271</v>
       </c>
       <c r="F8" s="15">
-        <f>STDEV(B8:C8)</f>
+        <f t="shared" si="2"/>
         <v>2480.3046274135136</v>
       </c>
     </row>
@@ -9881,15 +9888,15 @@
         <v>595996.17758791195</v>
       </c>
       <c r="D9" s="17">
-        <f>AVERAGE(B9:C9)</f>
+        <f t="shared" si="0"/>
         <v>600857.62877970957</v>
       </c>
       <c r="E9" s="15">
-        <f>STDEV(B9:C9)*2</f>
+        <f t="shared" si="1"/>
         <v>13750.26041651008</v>
       </c>
       <c r="F9" s="15">
-        <f>STDEV(B9:C9)</f>
+        <f t="shared" si="2"/>
         <v>6875.1302082550401</v>
       </c>
     </row>
@@ -9904,15 +9911,15 @@
         <v>613062.78964450595</v>
       </c>
       <c r="D10" s="17">
-        <f>AVERAGE(B10:C10)</f>
+        <f t="shared" si="0"/>
         <v>614315.67281048885</v>
       </c>
       <c r="E10" s="15">
-        <f>STDEV(B10:C10)*2</f>
+        <f t="shared" si="1"/>
         <v>3543.688730804085</v>
       </c>
       <c r="F10" s="15">
-        <f>STDEV(B10:C10)</f>
+        <f t="shared" si="2"/>
         <v>1771.8443654020425</v>
       </c>
     </row>
@@ -9927,15 +9934,15 @@
         <v>621526.71920102881</v>
       </c>
       <c r="D11" s="17">
-        <f>AVERAGE(B11:C11)</f>
+        <f t="shared" si="0"/>
         <v>622651.58592415205</v>
       </c>
       <c r="E11" s="15">
-        <f>STDEV(B11:C11)*2</f>
+        <f t="shared" si="1"/>
         <v>3181.6035514061327</v>
       </c>
       <c r="F11" s="15">
-        <f>STDEV(B11:C11)</f>
+        <f t="shared" si="2"/>
         <v>1590.8017757030664</v>
       </c>
     </row>
@@ -9950,15 +9957,15 @@
         <v>632349.44879789359</v>
       </c>
       <c r="D12" s="17">
-        <f>AVERAGE(B12:C12)</f>
+        <f t="shared" si="0"/>
         <v>631727.87202675734</v>
       </c>
       <c r="E12" s="15">
-        <f>STDEV(B12:C12)*2</f>
+        <f t="shared" si="1"/>
         <v>1758.0845995941081</v>
       </c>
       <c r="F12" s="15">
-        <f>STDEV(B12:C12)</f>
+        <f t="shared" si="2"/>
         <v>879.04229979705406</v>
       </c>
     </row>
@@ -9973,15 +9980,15 @@
         <v>643310.93133830791</v>
       </c>
       <c r="D13" s="17">
-        <f>AVERAGE(B13:C13)</f>
+        <f t="shared" si="0"/>
         <v>640669.92786201672</v>
       </c>
       <c r="E13" s="15">
-        <f>STDEV(B13:C13)*2</f>
+        <f t="shared" si="1"/>
         <v>7469.8858688910013</v>
       </c>
       <c r="F13" s="15">
-        <f>STDEV(B13:C13)</f>
+        <f t="shared" si="2"/>
         <v>3734.9429344455007</v>
       </c>
     </row>
@@ -9996,15 +10003,15 @@
         <v>661626.3198868481</v>
       </c>
       <c r="D14" s="17">
-        <f>AVERAGE(B14:C14)</f>
+        <f t="shared" si="0"/>
         <v>653638.8857842026</v>
       </c>
       <c r="E14" s="15">
-        <f>STDEV(B14:C14)*2</f>
+        <f t="shared" si="1"/>
         <v>22591.875273045258</v>
       </c>
       <c r="F14" s="15">
-        <f>STDEV(B14:C14)</f>
+        <f t="shared" si="2"/>
         <v>11295.937636522629</v>
       </c>
     </row>
@@ -10019,15 +10026,15 @@
         <v>674114.08480630745</v>
       </c>
       <c r="D15" s="17">
-        <f>AVERAGE(B15:C15)</f>
+        <f t="shared" si="0"/>
         <v>663821.28610379866</v>
       </c>
       <c r="E15" s="15">
-        <f>STDEV(B15:C15)*2</f>
+        <f t="shared" si="1"/>
         <v>29112.431039728261</v>
       </c>
       <c r="F15" s="15">
-        <f>STDEV(B15:C15)</f>
+        <f t="shared" si="2"/>
         <v>14556.21551986413</v>
       </c>
     </row>
@@ -10042,15 +10049,15 @@
         <v>688960.64976610907</v>
       </c>
       <c r="D16" s="17">
-        <f>AVERAGE(B16:C16)</f>
+        <f t="shared" si="0"/>
         <v>675246.71354954084</v>
       </c>
       <c r="E16" s="15">
-        <f>STDEV(B16:C16)*2</f>
+        <f t="shared" si="1"/>
         <v>38788.869181980546</v>
       </c>
       <c r="F16" s="15">
-        <f>STDEV(B16:C16)</f>
+        <f t="shared" si="2"/>
         <v>19394.434590990273</v>
       </c>
     </row>
@@ -10137,15 +10144,15 @@
         <v>787058</v>
       </c>
       <c r="D21" s="17">
-        <f>AVERAGE(B21:C21)</f>
+        <f t="shared" ref="D21:D31" si="3">AVERAGE(B21:C21)</f>
         <v>744719.5</v>
       </c>
       <c r="E21" s="15">
-        <f>STDEV(B21:C21)*2</f>
+        <f t="shared" ref="E21:E31" si="4">STDEV(B21:C21)*2</f>
         <v>119751.36182106657</v>
       </c>
       <c r="F21" s="15">
-        <f>STDEV(B21:C21)</f>
+        <f t="shared" ref="F21:F31" si="5">STDEV(B21:C21)</f>
         <v>59875.680910533287</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -10163,15 +10170,15 @@
         <v>800101</v>
       </c>
       <c r="D22" s="17">
-        <f>AVERAGE(B22:C22)</f>
+        <f t="shared" si="3"/>
         <v>754199.5</v>
       </c>
       <c r="E22" s="15">
-        <f>STDEV(B22:C22)*2</f>
+        <f t="shared" si="4"/>
         <v>129829.04766653724</v>
       </c>
       <c r="F22" s="15">
-        <f>STDEV(B22:C22)</f>
+        <f t="shared" si="5"/>
         <v>64914.52383326862</v>
       </c>
       <c r="H22" t="s">
@@ -10189,15 +10196,15 @@
         <v>817029</v>
       </c>
       <c r="D23" s="17">
-        <f>AVERAGE(B23:C23)</f>
+        <f t="shared" si="3"/>
         <v>765921.5</v>
       </c>
       <c r="E23" s="15">
-        <f>STDEV(B23:C23)*2</f>
+        <f t="shared" si="4"/>
         <v>144553.83927796592</v>
       </c>
       <c r="F23" s="15">
-        <f>STDEV(B23:C23)</f>
+        <f t="shared" si="5"/>
         <v>72276.919638982959</v>
       </c>
       <c r="H23" cm="1">
@@ -10219,15 +10226,15 @@
         <v>829101</v>
       </c>
       <c r="D24" s="17">
-        <f>AVERAGE(B24:C24)</f>
+        <f t="shared" si="3"/>
         <v>775030.5</v>
       </c>
       <c r="E24" s="15">
-        <f>STDEV(B24:C24)*2</f>
+        <f t="shared" si="4"/>
         <v>152934.46884858888</v>
       </c>
       <c r="F24" s="15">
-        <f>STDEV(B24:C24)</f>
+        <f t="shared" si="5"/>
         <v>76467.234424294438</v>
       </c>
       <c r="H24" t="s">
@@ -10245,15 +10252,15 @@
         <v>838536</v>
       </c>
       <c r="D25" s="17">
-        <f>AVERAGE(B25:C25)</f>
+        <f t="shared" si="3"/>
         <v>782216.5</v>
       </c>
       <c r="E25" s="15">
-        <f>STDEV(B25:C25)*2</f>
+        <f t="shared" si="4"/>
         <v>159295.60145214305</v>
       </c>
       <c r="F25" s="15">
-        <f>STDEV(B25:C25)</f>
+        <f t="shared" si="5"/>
         <v>79647.800726071524</v>
       </c>
       <c r="H25" s="8">
@@ -10272,15 +10279,15 @@
         <v>875583</v>
       </c>
       <c r="D26" s="17">
-        <f>AVERAGE(B26:C26)</f>
+        <f t="shared" si="3"/>
         <v>808852.5</v>
       </c>
       <c r="E26" s="15">
-        <f>STDEV(B26:C26)*2</f>
+        <f t="shared" si="4"/>
         <v>188742.35624787564</v>
       </c>
       <c r="F26" s="15">
-        <f>STDEV(B26:C26)</f>
+        <f t="shared" si="5"/>
         <v>94371.178123937818</v>
       </c>
     </row>
@@ -10295,15 +10302,15 @@
         <v>882659</v>
       </c>
       <c r="D27" s="17">
-        <f>AVERAGE(B27:C27)</f>
+        <f t="shared" si="3"/>
         <v>813892.5</v>
       </c>
       <c r="E27" s="15">
-        <f>STDEV(B27:C27)*2</f>
+        <f t="shared" si="4"/>
         <v>194501.03387385889</v>
       </c>
       <c r="F27" s="15">
-        <f>STDEV(B27:C27)</f>
+        <f t="shared" si="5"/>
         <v>97250.516936929445</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -10321,15 +10328,15 @@
         <v>892372</v>
       </c>
       <c r="D28" s="17">
-        <f>AVERAGE(B28:C28)</f>
+        <f t="shared" si="3"/>
         <v>820206</v>
       </c>
       <c r="E28" s="15">
-        <f>STDEV(B28:C28)*2</f>
+        <f t="shared" si="4"/>
         <v>204116.27188443355</v>
       </c>
       <c r="F28" s="15">
-        <f>STDEV(B28:C28)</f>
+        <f t="shared" si="5"/>
         <v>102058.13594221677</v>
       </c>
       <c r="H28" t="s">
@@ -10347,15 +10354,15 @@
         <v>900697</v>
       </c>
       <c r="D29" s="17">
-        <f>AVERAGE(B29:C29)</f>
+        <f t="shared" si="3"/>
         <v>825253</v>
       </c>
       <c r="E29" s="15">
-        <f>STDEV(B29:C29)*2</f>
+        <f t="shared" si="4"/>
         <v>213387.85599935157</v>
       </c>
       <c r="F29" s="15">
-        <f>STDEV(B29:C29)</f>
+        <f t="shared" si="5"/>
         <v>106693.92799967578</v>
       </c>
       <c r="H29">
@@ -10378,15 +10385,15 @@
         <v>918735</v>
       </c>
       <c r="D30" s="17">
-        <f>AVERAGE(B30:C30)</f>
+        <f t="shared" si="3"/>
         <v>838458.5</v>
       </c>
       <c r="E30" s="15">
-        <f>STDEV(B30:C30)*2</f>
+        <f t="shared" si="4"/>
         <v>227056.23007968752</v>
       </c>
       <c r="F30" s="15">
-        <f>STDEV(B30:C30)</f>
+        <f t="shared" si="5"/>
         <v>113528.11503984376</v>
       </c>
       <c r="H30" t="s">
@@ -10404,15 +10411,15 @@
         <v>939132</v>
       </c>
       <c r="D31" s="17">
-        <f>AVERAGE(B31:C31)</f>
+        <f t="shared" si="3"/>
         <v>853664.5</v>
       </c>
       <c r="E31" s="15">
-        <f>STDEV(B31:C31)*2</f>
+        <f t="shared" si="4"/>
         <v>241738.59528424501</v>
       </c>
       <c r="F31" s="15">
-        <f>STDEV(B31:C31)</f>
+        <f t="shared" si="5"/>
         <v>120869.2976421225</v>
       </c>
       <c r="H31" s="8">

--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C76922E-5EC8-4E74-83DA-B22BA80889BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDA9E18-F87E-4EC8-AED5-140A5B80CA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="15" windowWidth="24405" windowHeight="15375" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="12285" yWindow="840" windowWidth="24945" windowHeight="14280" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Week</t>
   </si>
@@ -156,7 +156,10 @@
     <t>Est Sales Combined</t>
   </si>
   <si>
-    <t>Retrospective reality check to determine if subreddit membership correlates to sales over a period of years.</t>
+    <t>Retrospective reality check to determine if subreddit membership correlates linearly to sales over a period of years.</t>
+  </si>
+  <si>
+    <t>Prediction from first 6 months exhibits 5.2% error 1 year later, and ~25.9% 2 years later, suggesting reasonable linearity.</t>
   </si>
 </sst>
 </file>
@@ -3429,7 +3432,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PS5 reality check'!$B$3:$B$8</c:f>
+              <c:f>'PS5 reality check'!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3456,7 +3459,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PS5 reality check'!$E$3:$E$8</c:f>
+              <c:f>'PS5 reality check'!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3515,7 +3518,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PS5 reality check'!$B$9:$B$12</c:f>
+              <c:f>'PS5 reality check'!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3536,7 +3539,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PS5 reality check'!$F$9:$F$12</c:f>
+              <c:f>'PS5 reality check'!$F$10:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3949,7 +3952,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'PS5 reality check'!$D$3:$D$8</c:f>
+              <c:f>'PS5 reality check'!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3976,7 +3979,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PS5 reality check'!$E$3:$E$12</c:f>
+              <c:f>'PS5 reality check'!$E$4:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4164,7 +4167,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'PS5 reality check'!$D$9:$D$12</c:f>
+              <c:f>'PS5 reality check'!$D$10:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4185,7 +4188,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PS5 reality check'!$F$9:$F$12</c:f>
+              <c:f>'PS5 reality check'!$F$10:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9276,13 +9279,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9314,13 +9317,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9685,20 +9688,20 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="18" customWidth="1"/>
     <col min="5" max="6" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="14" t="s">
         <v>16</v>
@@ -9716,7 +9719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>44979.791666666664</v>
       </c>
@@ -9739,7 +9742,7 @@
         <v>1511.7424598056805</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>44986.791666666664</v>
       </c>
@@ -9762,7 +9765,7 @@
         <v>2336.5238988524484</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>44993.791666666664</v>
       </c>
@@ -9785,7 +9788,7 @@
         <v>496.96036796483975</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45000.833333333336</v>
       </c>
@@ -9808,7 +9811,7 @@
         <v>3932.6749036909737</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45007.833333333336</v>
       </c>
@@ -9831,7 +9834,7 @@
         <v>678.5824936173874</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45014.833333333336</v>
       </c>
@@ -9854,7 +9857,7 @@
         <v>1518.0286270837319</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45021.833333333336</v>
       </c>
@@ -9877,7 +9880,7 @@
         <v>2480.3046274135136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45028.833333333336</v>
       </c>
@@ -9900,7 +9903,7 @@
         <v>6875.1302082550401</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45035.833333333336</v>
       </c>
@@ -9923,7 +9926,7 @@
         <v>1771.8443654020425</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45042.833333333336</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>1590.8017757030664</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45049.833333333336</v>
       </c>
@@ -9969,7 +9972,7 @@
         <v>879.04229979705406</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45056.833333333336</v>
       </c>
@@ -9992,7 +9995,7 @@
         <v>3734.9429344455007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45063.833333333336</v>
       </c>
@@ -10015,7 +10018,7 @@
         <v>11295.937636522629</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45070.833333333336</v>
       </c>
@@ -10038,7 +10041,7 @@
         <v>14556.21551986413</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45077.833333333336</v>
       </c>
@@ -10061,7 +10064,7 @@
         <v>19394.434590990273</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>45085</v>
       </c>
@@ -10078,7 +10081,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>45093</v>
       </c>
@@ -10095,7 +10098,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>45100</v>
       </c>
@@ -10112,7 +10115,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>45107</v>
       </c>
@@ -10133,7 +10136,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>45117</v>
       </c>
@@ -10159,7 +10162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>45124</v>
       </c>
@@ -10185,7 +10188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>45131</v>
       </c>
@@ -10215,7 +10218,7 @@
         <v>-44885646.020927444</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>45140</v>
       </c>
@@ -10241,7 +10244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>45146</v>
       </c>
@@ -10268,7 +10271,7 @@
         <v>45259.19742346977</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>45166</v>
       </c>
@@ -10291,7 +10294,7 @@
         <v>94371.178123937818</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>45170</v>
       </c>
@@ -10317,7 +10320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>45176</v>
       </c>
@@ -10343,7 +10346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>45183</v>
       </c>
@@ -10374,7 +10377,7 @@
         <v>-44885646.020927444</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>45201</v>
       </c>
@@ -10400,7 +10403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>45217</v>
       </c>
@@ -10442,23 +10445,23 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="8" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="8" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10472,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -10486,7 +10489,7 @@
         <v>438000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -10501,7 +10504,7 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -10516,7 +10519,7 @@
         <v>539000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -10531,7 +10534,7 @@
         <v>556000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -10546,7 +10549,7 @@
         <v>569000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -10561,647 +10564,647 @@
         <v>584000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
     </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K28" s="2"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
       <c r="Y167" s="6"/>
       <c r="Z167" s="7"/>
     </row>
-    <row r="168" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
       <c r="Y168" s="6"/>
       <c r="Z168" s="7"/>
     </row>
-    <row r="169" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
       <c r="Y169" s="6"/>
       <c r="Z169" s="7"/>
     </row>
-    <row r="170" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
       <c r="Y170" s="6"/>
       <c r="Z170" s="7"/>
     </row>
-    <row r="171" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
       <c r="Y171" s="6"/>
       <c r="Z171" s="7"/>
     </row>
-    <row r="172" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
       <c r="Y172" s="6"/>
       <c r="Z172" s="7"/>
     </row>
-    <row r="173" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="7"/>
     </row>
-    <row r="174" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
       <c r="Y182" s="2"/>
     </row>
-    <row r="183" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
     </row>
@@ -11221,15 +11224,15 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11243,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -11257,7 +11260,7 @@
         <v>438000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -11272,7 +11275,7 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -11287,7 +11290,7 @@
         <v>539000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -11302,7 +11305,7 @@
         <v>556000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -11317,7 +11320,7 @@
         <v>569000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -11332,624 +11335,624 @@
         <v>584000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I28" s="2"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" s="6"/>
       <c r="D188" s="7"/>
     </row>
@@ -11963,232 +11966,237 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5ECA9C6-B268-480D-9831-8BD4DDFDD29F}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>44136</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>627167</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>2750000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <f>(C4-C3)/7</f>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f>(C5-C4)/7</f>
         <v>4.2857142857142856</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>44166</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>747323</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>4500000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <f>(C5-C4)/7+B4</f>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>(C6-C5)/7+B5</f>
         <v>8.7142857142857153</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>44197</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>831669</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>5000000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <f t="shared" ref="B6:B9" si="0">(C6-C5)/7+B5</f>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f t="shared" ref="B7:B10" si="0">(C7-C6)/7+B6</f>
         <v>13.142857142857144</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>44228</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>953742</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>5800000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>17.142857142857146</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>44256</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>1033342</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>7000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>21.571428571428577</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>44287</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>1116766</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>7900000</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>47.714285714285722</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>44470</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>1620824</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>12500000</v>
-      </c>
-      <c r="F9" s="2">
-        <f>D9*9.914-3282419</f>
-        <v>12786430.136</v>
-      </c>
-      <c r="G9" s="5">
-        <f>(F9-E9)/E9</f>
-        <v>2.2914410879999996E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>(C10-C3+7)/7</f>
-        <v>70.285714285714292</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44621</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2052758</v>
-      </c>
-      <c r="E10" s="2">
-        <v>18000000</v>
       </c>
       <c r="F10" s="2">
         <f>D10*9.914-3282419</f>
-        <v>17068623.811999999</v>
+        <v>12786430.136</v>
       </c>
       <c r="G10" s="5">
         <f>(F10-E10)/E10</f>
-        <v>-5.1743121555555611E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.2914410879999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
-        <f>(C11-C3+7)/7</f>
-        <v>122.42857142857143</v>
+        <f>(C11-C4+7)/7</f>
+        <v>70.285714285714292</v>
       </c>
       <c r="C11" s="1">
-        <v>44986</v>
+        <v>44621</v>
       </c>
       <c r="D11" s="2">
-        <v>2941348</v>
+        <v>2052758</v>
       </c>
       <c r="E11" s="2">
-        <v>32000000</v>
+        <v>18000000</v>
       </c>
       <c r="F11" s="2">
         <f>D11*9.914-3282419</f>
-        <v>25878105.072000001</v>
+        <v>17068623.811999999</v>
       </c>
       <c r="G11" s="5">
         <f>(F11-E11)/E11</f>
-        <v>-0.19130921649999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-5.1743121555555611E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
-        <f>(C12-C3+7)/7</f>
-        <v>126.85714285714286</v>
+        <f>(C12-C4+7)/7</f>
+        <v>122.42857142857143</v>
       </c>
       <c r="C12" s="1">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="D12" s="2">
-        <v>3016851</v>
-      </c>
-      <c r="E12" s="3">
-        <v>35942643</v>
+        <v>2941348</v>
+      </c>
+      <c r="E12" s="2">
+        <v>32000000</v>
       </c>
       <c r="F12" s="2">
         <f>D12*9.914-3282419</f>
-        <v>26626641.813999999</v>
+        <v>25878105.072000001</v>
       </c>
       <c r="G12" s="5">
         <f>(F12-E12)/E12</f>
+        <v>-0.19130921649999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f>(C13-C4+7)/7</f>
+        <v>126.85714285714286</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3016851</v>
+      </c>
+      <c r="E13" s="3">
+        <v>35942643</v>
+      </c>
+      <c r="F13" s="2">
+        <f>D13*9.914-3282419</f>
+        <v>26626641.813999999</v>
+      </c>
+      <c r="G13" s="5">
+        <f>(F13-E13)/E13</f>
         <v>-0.25919076641080624</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" cm="1">
-        <f t="array" ref="C35:D35">LINEST(E3:E8,D3:D8)</f>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" cm="1">
+        <f t="array" ref="C36:D36">LINEST(E4:E9,D4:D9)</f>
         <v>9.9142047621025462</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>-3282419.4191012299</v>
       </c>
     </row>

--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDA9E18-F87E-4EC8-AED5-140A5B80CA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E572B287-81BB-4A63-82F1-91E766E2D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="840" windowWidth="24945" windowHeight="14280" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="165" yWindow="435" windowWidth="21795" windowHeight="14280" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Week</t>
   </si>
@@ -130,21 +130,6 @@
   </si>
   <si>
     <t>66% CI</t>
-  </si>
-  <si>
-    <t>When will it hit 1M?</t>
-  </si>
-  <si>
-    <t>Projected date:</t>
-  </si>
-  <si>
-    <t>Linear extrapolation from past month:</t>
-  </si>
-  <si>
-    <t>When will it hit 900k?</t>
-  </si>
-  <si>
-    <t>Linear extrapolation from past 2 months:</t>
   </si>
   <si>
     <t>Est Sales from r/PSVR</t>
@@ -230,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -266,6 +251,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,10 +329,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$31</c:f>
+                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$32</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
+                  <c:ptCount val="31"/>
                   <c:pt idx="0">
                     <c:v>1511.7424598056805</c:v>
                   </c:pt>
@@ -429,15 +423,18 @@
                   <c:pt idx="29">
                     <c:v>120869.2976421225</c:v>
                   </c:pt>
+                  <c:pt idx="30">
+                    <c:v>124616.9635824112</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$31</c:f>
+                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$32</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
+                  <c:ptCount val="31"/>
                   <c:pt idx="0">
                     <c:v>1511.7424598056805</c:v>
                   </c:pt>
@@ -528,6 +525,9 @@
                   <c:pt idx="29">
                     <c:v>120869.2976421225</c:v>
                   </c:pt>
+                  <c:pt idx="30">
+                    <c:v>124616.9635824112</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -547,10 +547,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Estimated PS VR2 Sales'!$A$2:$A$31</c:f>
+              <c:f>'Estimated PS VR2 Sales'!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44979.791666666664</c:v>
                 </c:pt>
@@ -640,16 +640,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45217</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Estimated PS VR2 Sales'!$D$2:$D$31</c:f>
+              <c:f>'Estimated PS VR2 Sales'!$D$2:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>437221.74996356922</c:v>
                 </c:pt>
@@ -739,6 +742,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>853664.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>860310.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,7 +771,7 @@
         <c:axId val="1022667008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45218"/>
+          <c:max val="45228"/>
           <c:min val="44978"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9685,32 +9691,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0C3A37-78ED-4113-9465-0FC068733B9F}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="18" customWidth="1"/>
     <col min="5" max="6" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>9</v>
@@ -9719,7 +9725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44979.791666666664</v>
       </c>
@@ -9742,7 +9748,7 @@
         <v>1511.7424598056805</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44986.791666666664</v>
       </c>
@@ -9765,7 +9771,7 @@
         <v>2336.5238988524484</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44993.791666666664</v>
       </c>
@@ -9788,7 +9794,7 @@
         <v>496.96036796483975</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>45000.833333333336</v>
       </c>
@@ -9811,7 +9817,7 @@
         <v>3932.6749036909737</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45007.833333333336</v>
       </c>
@@ -9834,7 +9840,7 @@
         <v>678.5824936173874</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>45014.833333333336</v>
       </c>
@@ -9857,7 +9863,7 @@
         <v>1518.0286270837319</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>45021.833333333336</v>
       </c>
@@ -9880,7 +9886,7 @@
         <v>2480.3046274135136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>45028.833333333336</v>
       </c>
@@ -9903,7 +9909,7 @@
         <v>6875.1302082550401</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>45035.833333333336</v>
       </c>
@@ -9926,7 +9932,7 @@
         <v>1771.8443654020425</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>45042.833333333336</v>
       </c>
@@ -9949,7 +9955,7 @@
         <v>1590.8017757030664</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>45049.833333333336</v>
       </c>
@@ -9972,7 +9978,7 @@
         <v>879.04229979705406</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>45056.833333333336</v>
       </c>
@@ -9995,7 +10001,7 @@
         <v>3734.9429344455007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>45063.833333333336</v>
       </c>
@@ -10018,7 +10024,7 @@
         <v>11295.937636522629</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>45070.833333333336</v>
       </c>
@@ -10041,7 +10047,7 @@
         <v>14556.21551986413</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>45077.833333333336</v>
       </c>
@@ -10064,7 +10070,7 @@
         <v>19394.434590990273</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>45085</v>
       </c>
@@ -10081,7 +10087,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>45093</v>
       </c>
@@ -10098,7 +10104,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>45100</v>
       </c>
@@ -10115,7 +10121,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>45107</v>
       </c>
@@ -10136,7 +10142,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>45117</v>
       </c>
@@ -10147,22 +10153,20 @@
         <v>787058</v>
       </c>
       <c r="D21" s="17">
-        <f t="shared" ref="D21:D31" si="3">AVERAGE(B21:C21)</f>
+        <f t="shared" ref="D21:D32" si="3">AVERAGE(B21:C21)</f>
         <v>744719.5</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" ref="E21:E31" si="4">STDEV(B21:C21)*2</f>
+        <f t="shared" ref="E21:E32" si="4">STDEV(B21:C21)*2</f>
         <v>119751.36182106657</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21:F31" si="5">STDEV(B21:C21)</f>
+        <f t="shared" ref="F21:F32" si="5">STDEV(B21:C21)</f>
         <v>59875.680910533287</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>45124</v>
       </c>
@@ -10184,11 +10188,8 @@
         <f t="shared" si="5"/>
         <v>64914.52383326862</v>
       </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>45131</v>
       </c>
@@ -10210,15 +10211,8 @@
         <f t="shared" si="5"/>
         <v>72276.919638982959</v>
       </c>
-      <c r="H23" cm="1">
-        <f t="array" ref="H23:I23">LINEST(D24:D31,A24:A31)</f>
-        <v>1011.6318588801284</v>
-      </c>
-      <c r="I23">
-        <v>-44885646.020927444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>45140</v>
       </c>
@@ -10240,11 +10234,8 @@
         <f t="shared" si="5"/>
         <v>76467.234424294438</v>
       </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>45146</v>
       </c>
@@ -10266,12 +10257,9 @@
         <f t="shared" si="5"/>
         <v>79647.800726071524</v>
       </c>
-      <c r="H25" s="8">
-        <f>(900000-I23)/H23</f>
-        <v>45259.19742346977</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>45166</v>
       </c>
@@ -10294,7 +10282,7 @@
         <v>94371.178123937818</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>45170</v>
       </c>
@@ -10316,11 +10304,9 @@
         <f t="shared" si="5"/>
         <v>97250.516936929445</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>45176</v>
       </c>
@@ -10342,11 +10328,8 @@
         <f t="shared" si="5"/>
         <v>102058.13594221677</v>
       </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>45183</v>
       </c>
@@ -10368,16 +10351,8 @@
         <f t="shared" si="5"/>
         <v>106693.92799967578</v>
       </c>
-      <c r="H29">
-        <f>H23</f>
-        <v>1011.6318588801284</v>
-      </c>
-      <c r="I29">
-        <f>I23</f>
-        <v>-44885646.020927444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>45201</v>
       </c>
@@ -10399,11 +10374,8 @@
         <f t="shared" si="5"/>
         <v>113528.11503984376</v>
       </c>
-      <c r="H30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>45217</v>
       </c>
@@ -10425,9 +10397,29 @@
         <f t="shared" si="5"/>
         <v>120869.2976421225</v>
       </c>
-      <c r="H31" s="8">
-        <f>(1000000-I29)/H29</f>
-        <v>45358.04761202621</v>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>45225</v>
+      </c>
+      <c r="B32" s="19">
+        <v>772193</v>
+      </c>
+      <c r="C32" s="19">
+        <v>948428</v>
+      </c>
+      <c r="D32" s="20">
+        <f t="shared" si="3"/>
+        <v>860310.5</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="4"/>
+        <v>249233.92716482241</v>
+      </c>
+      <c r="F32" s="21">
+        <f t="shared" si="5"/>
+        <v>124616.9635824112</v>
       </c>
     </row>
   </sheetData>
@@ -10445,23 +10437,23 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="8" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="8" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="22" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10475,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -10489,7 +10481,7 @@
         <v>438000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -10504,7 +10496,7 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -10519,7 +10511,7 @@
         <v>539000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -10534,7 +10526,7 @@
         <v>556000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -10549,7 +10541,7 @@
         <v>569000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -10564,647 +10556,647 @@
         <v>584000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K28" s="2"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
       <c r="Y167" s="6"/>
       <c r="Z167" s="7"/>
     </row>
-    <row r="168" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
       <c r="Y168" s="6"/>
       <c r="Z168" s="7"/>
     </row>
-    <row r="169" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
       <c r="Y169" s="6"/>
       <c r="Z169" s="7"/>
     </row>
-    <row r="170" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
       <c r="Y170" s="6"/>
       <c r="Z170" s="7"/>
     </row>
-    <row r="171" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
       <c r="Y171" s="6"/>
       <c r="Z171" s="7"/>
     </row>
-    <row r="172" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
       <c r="Y172" s="6"/>
       <c r="Z172" s="7"/>
     </row>
-    <row r="173" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="7"/>
     </row>
-    <row r="174" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
       <c r="Y182" s="2"/>
     </row>
-    <row r="183" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
     </row>
@@ -11224,15 +11216,15 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11246,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -11260,7 +11252,7 @@
         <v>438000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -11275,7 +11267,7 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -11290,7 +11282,7 @@
         <v>539000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -11305,7 +11297,7 @@
         <v>556000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -11320,7 +11312,7 @@
         <v>569000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -11335,624 +11327,624 @@
         <v>584000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I28" s="2"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C188" s="6"/>
       <c r="D188" s="7"/>
     </row>
@@ -11972,25 +11964,25 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12004,7 +11996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -12018,7 +12010,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>(C5-C4)/7</f>
         <v>4.2857142857142856</v>
@@ -12033,7 +12025,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>(C6-C5)/7+B5</f>
         <v>8.7142857142857153</v>
@@ -12048,7 +12040,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" ref="B7:B10" si="0">(C7-C6)/7+B6</f>
         <v>13.142857142857144</v>
@@ -12063,7 +12055,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>17.142857142857146</v>
@@ -12078,7 +12070,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>21.571428571428577</v>
@@ -12099,7 +12091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>47.714285714285722</v>
@@ -12122,7 +12114,7 @@
         <v>2.2914410879999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>(C11-C4+7)/7</f>
         <v>70.285714285714292</v>
@@ -12145,7 +12137,7 @@
         <v>-5.1743121555555611E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>(C12-C4+7)/7</f>
         <v>122.42857142857143</v>
@@ -12168,7 +12160,7 @@
         <v>-0.19130921649999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>(C13-C4+7)/7</f>
         <v>126.85714285714286</v>
@@ -12191,7 +12183,7 @@
         <v>-0.25919076641080624</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">LINEST(E4:E9,D4:D9)</f>
         <v>9.9142047621025462</v>

--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E572B287-81BB-4A63-82F1-91E766E2D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C826D085-C254-460E-8CBF-A03A9980B0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="435" windowWidth="21795" windowHeight="14280" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="990" yWindow="1050" windowWidth="21705" windowHeight="14190" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -244,22 +244,18 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,10 +325,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$32</c:f>
+                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="31"/>
+                  <c:ptCount val="32"/>
                   <c:pt idx="0">
                     <c:v>1511.7424598056805</c:v>
                   </c:pt>
@@ -426,15 +422,18 @@
                   <c:pt idx="30">
                     <c:v>124616.9635824112</c:v>
                   </c:pt>
+                  <c:pt idx="31">
+                    <c:v>125741.26336449782</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$32</c:f>
+                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="31"/>
+                  <c:ptCount val="32"/>
                   <c:pt idx="0">
                     <c:v>1511.7424598056805</c:v>
                   </c:pt>
@@ -528,6 +527,9 @@
                   <c:pt idx="30">
                     <c:v>124616.9635824112</c:v>
                   </c:pt>
+                  <c:pt idx="31">
+                    <c:v>125741.26336449782</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -547,10 +549,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Estimated PS VR2 Sales'!$A$2:$A$32</c:f>
+              <c:f>'Estimated PS VR2 Sales'!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44979.791666666664</c:v>
                 </c:pt>
@@ -643,16 +645,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45225</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Estimated PS VR2 Sales'!$D$2:$D$32</c:f>
+              <c:f>'Estimated PS VR2 Sales'!$D$2:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>437221.74996356922</c:v>
                 </c:pt>
@@ -745,6 +750,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>860310.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>865482.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,7 +779,7 @@
         <c:axId val="1022667008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45228"/>
+          <c:max val="45238"/>
           <c:min val="44978"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9691,10 +9699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0C3A37-78ED-4113-9465-0FC068733B9F}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9702,7 +9710,7 @@
     <col min="1" max="1" width="13.28515625" style="12" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="17" customWidth="1"/>
     <col min="5" max="6" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
@@ -9735,7 +9743,7 @@
       <c r="C2" s="15">
         <v>436152.78661883302</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <f t="shared" ref="D2:D16" si="0">AVERAGE(B2:C2)</f>
         <v>437221.74996356922</v>
       </c>
@@ -9758,7 +9766,7 @@
       <c r="C3" s="15">
         <v>504280.48190166097</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <f t="shared" si="0"/>
         <v>502628.310008378</v>
       </c>
@@ -9781,7 +9789,7 @@
       <c r="C4" s="15">
         <v>533696.10593416519</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f t="shared" si="0"/>
         <v>533344.70188799629</v>
       </c>
@@ -9804,7 +9812,7 @@
       <c r="C5" s="15">
         <v>549930.20032946218</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>552711.02142206416</v>
       </c>
@@ -9827,7 +9835,7 @@
       <c r="C6" s="15">
         <v>570604.38891834486</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>571084.21920117619</v>
       </c>
@@ -9850,7 +9858,7 @@
       <c r="C7" s="15">
         <v>582537.14206360595</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>583610.55039985222</v>
       </c>
@@ -9873,7 +9881,7 @@
       <c r="C8" s="15">
         <v>592527.35399917339</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>594281.1942206258</v>
       </c>
@@ -9896,7 +9904,7 @@
       <c r="C9" s="15">
         <v>595996.17758791195</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>600857.62877970957</v>
       </c>
@@ -9919,7 +9927,7 @@
       <c r="C10" s="15">
         <v>613062.78964450595</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>614315.67281048885</v>
       </c>
@@ -9942,7 +9950,7 @@
       <c r="C11" s="15">
         <v>621526.71920102881</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>622651.58592415205</v>
       </c>
@@ -9965,7 +9973,7 @@
       <c r="C12" s="15">
         <v>632349.44879789359</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>631727.87202675734</v>
       </c>
@@ -9988,7 +9996,7 @@
       <c r="C13" s="15">
         <v>643310.93133830791</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>640669.92786201672</v>
       </c>
@@ -10011,7 +10019,7 @@
       <c r="C14" s="15">
         <v>661626.3198868481</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>653638.8857842026</v>
       </c>
@@ -10034,7 +10042,7 @@
       <c r="C15" s="15">
         <v>674114.08480630745</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>663821.28610379866</v>
       </c>
@@ -10057,7 +10065,7 @@
       <c r="C16" s="15">
         <v>688960.64976610907</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>675246.71354954084</v>
       </c>
@@ -10076,7 +10084,7 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>686000</v>
       </c>
       <c r="E17" s="15">
@@ -10093,7 +10101,7 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>706000</v>
       </c>
       <c r="E18" s="15">
@@ -10110,7 +10118,7 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>716000</v>
       </c>
       <c r="E19" s="15">
@@ -10131,7 +10139,7 @@
       <c r="C20" s="15">
         <v>760695</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>726000</v>
       </c>
       <c r="E20" s="15">
@@ -10152,16 +10160,16 @@
       <c r="C21" s="15">
         <v>787058</v>
       </c>
-      <c r="D21" s="17">
-        <f t="shared" ref="D21:D32" si="3">AVERAGE(B21:C21)</f>
+      <c r="D21" s="16">
+        <f t="shared" ref="D21:D33" si="3">AVERAGE(B21:C21)</f>
         <v>744719.5</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" ref="E21:E32" si="4">STDEV(B21:C21)*2</f>
+        <f t="shared" ref="E21:E33" si="4">STDEV(B21:C21)*2</f>
         <v>119751.36182106657</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21:F32" si="5">STDEV(B21:C21)</f>
+        <f t="shared" ref="F21:F33" si="5">STDEV(B21:C21)</f>
         <v>59875.680910533287</v>
       </c>
       <c r="H21" s="4"/>
@@ -10176,7 +10184,7 @@
       <c r="C22" s="15">
         <v>800101</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <f t="shared" si="3"/>
         <v>754199.5</v>
       </c>
@@ -10199,7 +10207,7 @@
       <c r="C23" s="15">
         <v>817029</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <f t="shared" si="3"/>
         <v>765921.5</v>
       </c>
@@ -10222,7 +10230,7 @@
       <c r="C24" s="15">
         <v>829101</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <f t="shared" si="3"/>
         <v>775030.5</v>
       </c>
@@ -10245,7 +10253,7 @@
       <c r="C25" s="15">
         <v>838536</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <f t="shared" si="3"/>
         <v>782216.5</v>
       </c>
@@ -10269,7 +10277,7 @@
       <c r="C26" s="15">
         <v>875583</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <f t="shared" si="3"/>
         <v>808852.5</v>
       </c>
@@ -10292,7 +10300,7 @@
       <c r="C27" s="15">
         <v>882659</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <f t="shared" si="3"/>
         <v>813892.5</v>
       </c>
@@ -10316,7 +10324,7 @@
       <c r="C28" s="15">
         <v>892372</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <f t="shared" si="3"/>
         <v>820206</v>
       </c>
@@ -10339,7 +10347,7 @@
       <c r="C29" s="15">
         <v>900697</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <f t="shared" si="3"/>
         <v>825253</v>
       </c>
@@ -10362,7 +10370,7 @@
       <c r="C30" s="15">
         <v>918735</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <f t="shared" si="3"/>
         <v>838458.5</v>
       </c>
@@ -10379,13 +10387,13 @@
       <c r="A31" s="11">
         <v>45217</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>768197</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>939132</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="16">
         <f t="shared" si="3"/>
         <v>853664.5</v>
       </c>
@@ -10409,18 +10417,265 @@
       <c r="C32" s="19">
         <v>948428</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <f t="shared" si="3"/>
         <v>860310.5</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <f t="shared" si="4"/>
         <v>249233.92716482241</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="19">
         <f t="shared" si="5"/>
         <v>124616.9635824112</v>
       </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>45231</v>
+      </c>
+      <c r="B33" s="19">
+        <v>776570</v>
+      </c>
+      <c r="C33" s="19">
+        <v>954395</v>
+      </c>
+      <c r="D33" s="18">
+        <f t="shared" si="3"/>
+        <v>865482.5</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="4"/>
+        <v>251482.52672899564</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="5"/>
+        <v>125741.26336449782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C826D085-C254-460E-8CBF-A03A9980B0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366492B7-974D-4EB1-A702-8F668CDD0F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1050" windowWidth="21705" windowHeight="14190" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="1800" yWindow="555" windowWidth="18630" windowHeight="14280" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -325,10 +325,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$33</c:f>
+                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$34</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="32"/>
+                  <c:ptCount val="33"/>
                   <c:pt idx="0">
                     <c:v>1511.7424598056805</c:v>
                   </c:pt>
@@ -425,15 +425,18 @@
                   <c:pt idx="31">
                     <c:v>125741.26336449782</c:v>
                   </c:pt>
+                  <c:pt idx="32">
+                    <c:v>127511.15163780774</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$33</c:f>
+                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$34</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="32"/>
+                  <c:ptCount val="33"/>
                   <c:pt idx="0">
                     <c:v>1511.7424598056805</c:v>
                   </c:pt>
@@ -530,6 +533,9 @@
                   <c:pt idx="31">
                     <c:v>125741.26336449782</c:v>
                   </c:pt>
+                  <c:pt idx="32">
+                    <c:v>127511.15163780774</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -549,10 +555,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Estimated PS VR2 Sales'!$A$2:$A$33</c:f>
+              <c:f>'Estimated PS VR2 Sales'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44979.791666666664</c:v>
                 </c:pt>
@@ -648,16 +654,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Estimated PS VR2 Sales'!$D$2:$D$33</c:f>
+              <c:f>'Estimated PS VR2 Sales'!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>437221.74996356922</c:v>
                 </c:pt>
@@ -753,6 +762,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>865482.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>868948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9701,8 +9713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0C3A37-78ED-4113-9465-0FC068733B9F}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10161,15 +10173,15 @@
         <v>787058</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" ref="D21:D33" si="3">AVERAGE(B21:C21)</f>
+        <f t="shared" ref="D21:D34" si="3">AVERAGE(B21:C21)</f>
         <v>744719.5</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" ref="E21:E33" si="4">STDEV(B21:C21)*2</f>
+        <f t="shared" ref="E21:E34" si="4">STDEV(B21:C21)*2</f>
         <v>119751.36182106657</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21:F33" si="5">STDEV(B21:C21)</f>
+        <f t="shared" ref="F21:F34" si="5">STDEV(B21:C21)</f>
         <v>59875.680910533287</v>
       </c>
       <c r="H21" s="4"/>
@@ -10454,11 +10466,27 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="A34" s="11">
+        <v>45236</v>
+      </c>
+      <c r="B34" s="19">
+        <v>778784</v>
+      </c>
+      <c r="C34" s="19">
+        <v>959112</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" si="3"/>
+        <v>868948</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" si="4"/>
+        <v>255022.30327561547</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="5"/>
+        <v>127511.15163780774</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="20"/>

--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366492B7-974D-4EB1-A702-8F668CDD0F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45E23CD-6DDD-4FF4-878A-CFF1279B21D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="555" windowWidth="18630" windowHeight="14280" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="1545" yWindow="210" windowWidth="19275" windowHeight="15330" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -325,10 +325,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$34</c:f>
+                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$120</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="33"/>
+                  <c:ptCount val="119"/>
                   <c:pt idx="0">
                     <c:v>1511.7424598056805</c:v>
                   </c:pt>
@@ -428,15 +428,18 @@
                   <c:pt idx="32">
                     <c:v>127511.15163780774</c:v>
                   </c:pt>
+                  <c:pt idx="33">
+                    <c:v>131629.3415314382</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$34</c:f>
+                <c:f>'Estimated PS VR2 Sales'!$F$2:$F$120</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="33"/>
+                  <c:ptCount val="119"/>
                   <c:pt idx="0">
                     <c:v>1511.7424598056805</c:v>
                   </c:pt>
@@ -536,6 +539,9 @@
                   <c:pt idx="32">
                     <c:v>127511.15163780774</c:v>
                   </c:pt>
+                  <c:pt idx="33">
+                    <c:v>131629.3415314382</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -555,10 +561,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Estimated PS VR2 Sales'!$A$2:$A$34</c:f>
+              <c:f>'Estimated PS VR2 Sales'!$A$2:$A$120</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>44979.791666666664</c:v>
                 </c:pt>
@@ -657,16 +663,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45236</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Estimated PS VR2 Sales'!$D$2:$D$34</c:f>
+              <c:f>'Estimated PS VR2 Sales'!$D$2:$D$120</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="119"/>
                 <c:pt idx="0">
                   <c:v>437221.74996356922</c:v>
                 </c:pt>
@@ -765,6 +774,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>868948</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>876581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -791,7 +803,7 @@
         <c:axId val="1022667008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45238"/>
+          <c:max val="45298"/>
           <c:min val="44978"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -810,6 +822,55 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9022,7 +9083,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9713,8 +9774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0C3A37-78ED-4113-9465-0FC068733B9F}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10173,15 +10234,15 @@
         <v>787058</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" ref="D21:D34" si="3">AVERAGE(B21:C21)</f>
+        <f t="shared" ref="D21:D35" si="3">AVERAGE(B21:C21)</f>
         <v>744719.5</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" ref="E21:E34" si="4">STDEV(B21:C21)*2</f>
+        <f t="shared" ref="E21:E35" si="4">STDEV(B21:C21)*2</f>
         <v>119751.36182106657</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21:F34" si="5">STDEV(B21:C21)</f>
+        <f t="shared" ref="F21:F35" si="5">STDEV(B21:C21)</f>
         <v>59875.680910533287</v>
       </c>
       <c r="H21" s="4"/>
@@ -10489,11 +10550,27 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="A35" s="11">
+        <v>45245</v>
+      </c>
+      <c r="B35" s="15">
+        <v>783505</v>
+      </c>
+      <c r="C35" s="15">
+        <v>969657</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="3"/>
+        <v>876581</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="4"/>
+        <v>263258.6830628764</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="5"/>
+        <v>131629.3415314382</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="20"/>

--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45E23CD-6DDD-4FF4-878A-CFF1279B21D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE140B78-8FDA-46B1-BCD8-41B3C3DB1A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="210" windowWidth="19275" windowHeight="15330" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="15600" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -431,6 +431,9 @@
                   <c:pt idx="33">
                     <c:v>131629.3415314382</c:v>
                   </c:pt>
+                  <c:pt idx="34">
+                    <c:v>142996.08303901195</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -542,6 +545,9 @@
                   <c:pt idx="33">
                     <c:v>131629.3415314382</c:v>
                   </c:pt>
+                  <c:pt idx="34">
+                    <c:v>142996.08303901195</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -667,6 +673,9 @@
                 <c:pt idx="33">
                   <c:v>45245</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>45261</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -777,6 +786,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>876581</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>896988.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9775,20 +9787,20 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="17" customWidth="1"/>
     <col min="5" max="6" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="14" t="s">
         <v>11</v>
@@ -9806,7 +9818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>44979.791666666664</v>
       </c>
@@ -9829,7 +9841,7 @@
         <v>1511.7424598056805</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>44986.791666666664</v>
       </c>
@@ -9852,7 +9864,7 @@
         <v>2336.5238988524484</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>44993.791666666664</v>
       </c>
@@ -9875,7 +9887,7 @@
         <v>496.96036796483975</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45000.833333333336</v>
       </c>
@@ -9898,7 +9910,7 @@
         <v>3932.6749036909737</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45007.833333333336</v>
       </c>
@@ -9921,7 +9933,7 @@
         <v>678.5824936173874</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45014.833333333336</v>
       </c>
@@ -9944,7 +9956,7 @@
         <v>1518.0286270837319</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45021.833333333336</v>
       </c>
@@ -9967,7 +9979,7 @@
         <v>2480.3046274135136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45028.833333333336</v>
       </c>
@@ -9990,7 +10002,7 @@
         <v>6875.1302082550401</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45035.833333333336</v>
       </c>
@@ -10013,7 +10025,7 @@
         <v>1771.8443654020425</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45042.833333333336</v>
       </c>
@@ -10036,7 +10048,7 @@
         <v>1590.8017757030664</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45049.833333333336</v>
       </c>
@@ -10059,7 +10071,7 @@
         <v>879.04229979705406</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45056.833333333336</v>
       </c>
@@ -10082,7 +10094,7 @@
         <v>3734.9429344455007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45063.833333333336</v>
       </c>
@@ -10105,7 +10117,7 @@
         <v>11295.937636522629</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45070.833333333336</v>
       </c>
@@ -10128,7 +10140,7 @@
         <v>14556.21551986413</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45077.833333333336</v>
       </c>
@@ -10151,7 +10163,7 @@
         <v>19394.434590990273</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>45085</v>
       </c>
@@ -10168,7 +10180,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>45093</v>
       </c>
@@ -10185,7 +10197,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>45100</v>
       </c>
@@ -10202,7 +10214,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>45107</v>
       </c>
@@ -10223,7 +10235,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>45117</v>
       </c>
@@ -10234,20 +10246,20 @@
         <v>787058</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" ref="D21:D35" si="3">AVERAGE(B21:C21)</f>
+        <f t="shared" ref="D21:D36" si="3">AVERAGE(B21:C21)</f>
         <v>744719.5</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" ref="E21:E35" si="4">STDEV(B21:C21)*2</f>
+        <f t="shared" ref="E21:E36" si="4">STDEV(B21:C21)*2</f>
         <v>119751.36182106657</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21:F35" si="5">STDEV(B21:C21)</f>
+        <f t="shared" ref="F21:F36" si="5">STDEV(B21:C21)</f>
         <v>59875.680910533287</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>45124</v>
       </c>
@@ -10270,7 +10282,7 @@
         <v>64914.52383326862</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>45131</v>
       </c>
@@ -10293,7 +10305,7 @@
         <v>72276.919638982959</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>45140</v>
       </c>
@@ -10316,7 +10328,7 @@
         <v>76467.234424294438</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>45146</v>
       </c>
@@ -10340,7 +10352,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>45166</v>
       </c>
@@ -10363,7 +10375,7 @@
         <v>94371.178123937818</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>45170</v>
       </c>
@@ -10387,7 +10399,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>45176</v>
       </c>
@@ -10410,7 +10422,7 @@
         <v>102058.13594221677</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>45183</v>
       </c>
@@ -10433,7 +10445,7 @@
         <v>106693.92799967578</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>45201</v>
       </c>
@@ -10456,7 +10468,7 @@
         <v>113528.11503984376</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>45217</v>
       </c>
@@ -10480,7 +10492,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>45225</v>
       </c>
@@ -10503,7 +10515,7 @@
         <v>124616.9635824112</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>45231</v>
       </c>
@@ -10526,7 +10538,7 @@
         <v>125741.26336449782</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>45236</v>
       </c>
@@ -10549,7 +10561,7 @@
         <v>127511.15163780774</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>45245</v>
       </c>
@@ -10572,210 +10584,226 @@
         <v>131629.3415314382</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>45261</v>
+      </c>
+      <c r="B36" s="19">
+        <v>795875</v>
+      </c>
+      <c r="C36" s="19">
+        <v>998102</v>
+      </c>
+      <c r="D36" s="18">
+        <f t="shared" si="3"/>
+        <v>896988.5</v>
+      </c>
+      <c r="E36" s="19">
+        <f t="shared" si="4"/>
+        <v>285992.1660780239</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="5"/>
+        <v>142996.08303901195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="21"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="21"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="21"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="21"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="21"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="21"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="21"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="21"/>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="21"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="21"/>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="21"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="21"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="21"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="21"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="21"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="21"/>
@@ -10797,23 +10825,23 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="8" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="8" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10827,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -10841,7 +10869,7 @@
         <v>438000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -10856,7 +10884,7 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -10871,7 +10899,7 @@
         <v>539000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -10886,7 +10914,7 @@
         <v>556000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -10901,7 +10929,7 @@
         <v>569000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -10916,647 +10944,647 @@
         <v>584000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
     </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K28" s="2"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
       <c r="Y167" s="6"/>
       <c r="Z167" s="7"/>
     </row>
-    <row r="168" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
       <c r="Y168" s="6"/>
       <c r="Z168" s="7"/>
     </row>
-    <row r="169" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
       <c r="Y169" s="6"/>
       <c r="Z169" s="7"/>
     </row>
-    <row r="170" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
       <c r="Y170" s="6"/>
       <c r="Z170" s="7"/>
     </row>
-    <row r="171" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
       <c r="Y171" s="6"/>
       <c r="Z171" s="7"/>
     </row>
-    <row r="172" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
       <c r="Y172" s="6"/>
       <c r="Z172" s="7"/>
     </row>
-    <row r="173" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="7"/>
     </row>
-    <row r="174" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
       <c r="Y182" s="2"/>
     </row>
-    <row r="183" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
     </row>
@@ -11576,15 +11604,15 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11598,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -11612,7 +11640,7 @@
         <v>438000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -11627,7 +11655,7 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -11642,7 +11670,7 @@
         <v>539000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -11657,7 +11685,7 @@
         <v>556000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -11672,7 +11700,7 @@
         <v>569000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -11687,624 +11715,624 @@
         <v>584000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I28" s="2"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" s="6"/>
       <c r="D188" s="7"/>
     </row>
@@ -12324,25 +12352,25 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12356,7 +12384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -12370,7 +12398,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <f>(C5-C4)/7</f>
         <v>4.2857142857142856</v>
@@ -12385,7 +12413,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <f>(C6-C5)/7+B5</f>
         <v>8.7142857142857153</v>
@@ -12400,7 +12428,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="shared" ref="B7:B10" si="0">(C7-C6)/7+B6</f>
         <v>13.142857142857144</v>
@@ -12415,7 +12443,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>17.142857142857146</v>
@@ -12430,7 +12458,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>21.571428571428577</v>
@@ -12451,7 +12479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>47.714285714285722</v>
@@ -12474,7 +12502,7 @@
         <v>2.2914410879999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>(C11-C4+7)/7</f>
         <v>70.285714285714292</v>
@@ -12497,7 +12525,7 @@
         <v>-5.1743121555555611E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>(C12-C4+7)/7</f>
         <v>122.42857142857143</v>
@@ -12520,7 +12548,7 @@
         <v>-0.19130921649999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>(C13-C4+7)/7</f>
         <v>126.85714285714286</v>
@@ -12543,7 +12571,7 @@
         <v>-0.25919076641080624</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">LINEST(E4:E9,D4:D9)</f>
         <v>9.9142047621025462</v>

--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE140B78-8FDA-46B1-BCD8-41B3C3DB1A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB477850-E52E-432D-822D-AAF97F2A54C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="15600" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="8685" yWindow="1200" windowWidth="14910" windowHeight="11430" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -434,6 +434,9 @@
                   <c:pt idx="34">
                     <c:v>142996.08303901195</c:v>
                   </c:pt>
+                  <c:pt idx="35">
+                    <c:v>145492.87708338164</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -548,6 +551,9 @@
                   <c:pt idx="34">
                     <c:v>142996.08303901195</c:v>
                   </c:pt>
+                  <c:pt idx="35">
+                    <c:v>145492.87708338164</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -676,6 +682,9 @@
                 <c:pt idx="34">
                   <c:v>45261</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>45265</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -789,6 +798,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>896988.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>901744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9787,20 +9799,20 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="17" customWidth="1"/>
     <col min="5" max="6" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="14" t="s">
         <v>11</v>
@@ -9818,7 +9830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>44979.791666666664</v>
       </c>
@@ -9841,7 +9853,7 @@
         <v>1511.7424598056805</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>44986.791666666664</v>
       </c>
@@ -9864,7 +9876,7 @@
         <v>2336.5238988524484</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>44993.791666666664</v>
       </c>
@@ -9887,7 +9899,7 @@
         <v>496.96036796483975</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>45000.833333333336</v>
       </c>
@@ -9910,7 +9922,7 @@
         <v>3932.6749036909737</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45007.833333333336</v>
       </c>
@@ -9933,7 +9945,7 @@
         <v>678.5824936173874</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>45014.833333333336</v>
       </c>
@@ -9956,7 +9968,7 @@
         <v>1518.0286270837319</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>45021.833333333336</v>
       </c>
@@ -9979,7 +9991,7 @@
         <v>2480.3046274135136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>45028.833333333336</v>
       </c>
@@ -10002,7 +10014,7 @@
         <v>6875.1302082550401</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>45035.833333333336</v>
       </c>
@@ -10025,7 +10037,7 @@
         <v>1771.8443654020425</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>45042.833333333336</v>
       </c>
@@ -10048,7 +10060,7 @@
         <v>1590.8017757030664</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>45049.833333333336</v>
       </c>
@@ -10071,7 +10083,7 @@
         <v>879.04229979705406</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>45056.833333333336</v>
       </c>
@@ -10094,7 +10106,7 @@
         <v>3734.9429344455007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>45063.833333333336</v>
       </c>
@@ -10117,7 +10129,7 @@
         <v>11295.937636522629</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>45070.833333333336</v>
       </c>
@@ -10140,7 +10152,7 @@
         <v>14556.21551986413</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>45077.833333333336</v>
       </c>
@@ -10163,7 +10175,7 @@
         <v>19394.434590990273</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>45085</v>
       </c>
@@ -10180,7 +10192,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>45093</v>
       </c>
@@ -10197,7 +10209,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>45100</v>
       </c>
@@ -10214,7 +10226,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>45107</v>
       </c>
@@ -10235,7 +10247,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>45117</v>
       </c>
@@ -10246,20 +10258,20 @@
         <v>787058</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" ref="D21:D36" si="3">AVERAGE(B21:C21)</f>
+        <f t="shared" ref="D21:D37" si="3">AVERAGE(B21:C21)</f>
         <v>744719.5</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" ref="E21:E36" si="4">STDEV(B21:C21)*2</f>
+        <f t="shared" ref="E21:E37" si="4">STDEV(B21:C21)*2</f>
         <v>119751.36182106657</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21:F36" si="5">STDEV(B21:C21)</f>
+        <f t="shared" ref="F21:F37" si="5">STDEV(B21:C21)</f>
         <v>59875.680910533287</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>45124</v>
       </c>
@@ -10282,7 +10294,7 @@
         <v>64914.52383326862</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>45131</v>
       </c>
@@ -10305,7 +10317,7 @@
         <v>72276.919638982959</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>45140</v>
       </c>
@@ -10328,7 +10340,7 @@
         <v>76467.234424294438</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>45146</v>
       </c>
@@ -10352,7 +10364,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>45166</v>
       </c>
@@ -10375,7 +10387,7 @@
         <v>94371.178123937818</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>45170</v>
       </c>
@@ -10399,7 +10411,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>45176</v>
       </c>
@@ -10422,7 +10434,7 @@
         <v>102058.13594221677</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>45183</v>
       </c>
@@ -10445,7 +10457,7 @@
         <v>106693.92799967578</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>45201</v>
       </c>
@@ -10468,7 +10480,7 @@
         <v>113528.11503984376</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>45217</v>
       </c>
@@ -10492,7 +10504,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>45225</v>
       </c>
@@ -10515,7 +10527,7 @@
         <v>124616.9635824112</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>45231</v>
       </c>
@@ -10538,7 +10550,7 @@
         <v>125741.26336449782</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>45236</v>
       </c>
@@ -10561,7 +10573,7 @@
         <v>127511.15163780774</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>45245</v>
       </c>
@@ -10584,7 +10596,7 @@
         <v>131629.3415314382</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>45261</v>
       </c>
@@ -10607,203 +10619,219 @@
         <v>142996.08303901195</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>45265</v>
+      </c>
+      <c r="B37" s="19">
+        <v>798865</v>
+      </c>
+      <c r="C37" s="19">
+        <v>1004623</v>
+      </c>
+      <c r="D37" s="18">
+        <f t="shared" si="3"/>
+        <v>901744</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" si="4"/>
+        <v>290985.75416676328</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="5"/>
+        <v>145492.87708338164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="21"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="21"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="21"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="21"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="21"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="21"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="21"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="21"/>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="21"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="21"/>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="21"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="21"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="21"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="21"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="21"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="21"/>
@@ -10825,23 +10853,23 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="8" max="10" width="21.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="8" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="22" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10855,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -10869,7 +10897,7 @@
         <v>438000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -10884,7 +10912,7 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -10899,7 +10927,7 @@
         <v>539000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -10914,7 +10942,7 @@
         <v>556000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -10929,7 +10957,7 @@
         <v>569000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -10944,647 +10972,647 @@
         <v>584000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K28" s="2"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
       <c r="Y167" s="6"/>
       <c r="Z167" s="7"/>
     </row>
-    <row r="168" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
       <c r="Y168" s="6"/>
       <c r="Z168" s="7"/>
     </row>
-    <row r="169" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
       <c r="Y169" s="6"/>
       <c r="Z169" s="7"/>
     </row>
-    <row r="170" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
       <c r="Y170" s="6"/>
       <c r="Z170" s="7"/>
     </row>
-    <row r="171" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
       <c r="Y171" s="6"/>
       <c r="Z171" s="7"/>
     </row>
-    <row r="172" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
       <c r="Y172" s="6"/>
       <c r="Z172" s="7"/>
     </row>
-    <row r="173" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="7"/>
     </row>
-    <row r="174" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
       <c r="Y182" s="2"/>
     </row>
-    <row r="183" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
     </row>
@@ -11604,15 +11632,15 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11626,7 +11654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -11640,7 +11668,7 @@
         <v>438000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -11655,7 +11683,7 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -11670,7 +11698,7 @@
         <v>539000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -11685,7 +11713,7 @@
         <v>556000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -11700,7 +11728,7 @@
         <v>569000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -11715,624 +11743,624 @@
         <v>584000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I28" s="2"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C188" s="6"/>
       <c r="D188" s="7"/>
     </row>
@@ -12352,25 +12380,25 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12384,7 +12412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -12398,7 +12426,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>(C5-C4)/7</f>
         <v>4.2857142857142856</v>
@@ -12413,7 +12441,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>(C6-C5)/7+B5</f>
         <v>8.7142857142857153</v>
@@ -12428,7 +12456,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" ref="B7:B10" si="0">(C7-C6)/7+B6</f>
         <v>13.142857142857144</v>
@@ -12443,7 +12471,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>17.142857142857146</v>
@@ -12458,7 +12486,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>21.571428571428577</v>
@@ -12479,7 +12507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>47.714285714285722</v>
@@ -12502,7 +12530,7 @@
         <v>2.2914410879999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>(C11-C4+7)/7</f>
         <v>70.285714285714292</v>
@@ -12525,7 +12553,7 @@
         <v>-5.1743121555555611E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>(C12-C4+7)/7</f>
         <v>122.42857142857143</v>
@@ -12548,7 +12576,7 @@
         <v>-0.19130921649999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>(C13-C4+7)/7</f>
         <v>126.85714285714286</v>
@@ -12571,7 +12599,7 @@
         <v>-0.25919076641080624</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">LINEST(E4:E9,D4:D9)</f>
         <v>9.9142047621025462</v>

--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB477850-E52E-432D-822D-AAF97F2A54C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100D77D4-A135-4394-9152-E70883894A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8685" yWindow="1200" windowWidth="14910" windowHeight="11430" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="1365" yWindow="855" windowWidth="19230" windowHeight="12090" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -437,6 +437,9 @@
                   <c:pt idx="35">
                     <c:v>145492.87708338164</c:v>
                   </c:pt>
+                  <c:pt idx="36">
+                    <c:v>147468.53343001686</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -554,6 +557,9 @@
                   <c:pt idx="35">
                     <c:v>145492.87708338164</c:v>
                   </c:pt>
+                  <c:pt idx="36">
+                    <c:v>147468.53343001686</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -685,6 +691,9 @@
                 <c:pt idx="35">
                   <c:v>45265</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>45270</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -801,6 +810,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>901744</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>908117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9798,7 +9810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0C3A37-78ED-4113-9465-0FC068733B9F}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -10258,15 +10270,15 @@
         <v>787058</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" ref="D21:D37" si="3">AVERAGE(B21:C21)</f>
+        <f t="shared" ref="D21:D38" si="3">AVERAGE(B21:C21)</f>
         <v>744719.5</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" ref="E21:E37" si="4">STDEV(B21:C21)*2</f>
+        <f t="shared" ref="E21:E38" si="4">STDEV(B21:C21)*2</f>
         <v>119751.36182106657</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21:F37" si="5">STDEV(B21:C21)</f>
+        <f t="shared" ref="F21:F38" si="5">STDEV(B21:C21)</f>
         <v>59875.680910533287</v>
       </c>
       <c r="H21" s="4"/>
@@ -10643,11 +10655,27 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="A38" s="11">
+        <v>45270</v>
+      </c>
+      <c r="B38" s="19">
+        <v>803841</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1012393</v>
+      </c>
+      <c r="D38" s="18">
+        <f t="shared" si="3"/>
+        <v>908117</v>
+      </c>
+      <c r="E38" s="19">
+        <f t="shared" si="4"/>
+        <v>294937.06686003372</v>
+      </c>
+      <c r="F38" s="19">
+        <f t="shared" si="5"/>
+        <v>147468.53343001686</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="20"/>

--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100D77D4-A135-4394-9152-E70883894A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A308B796-957B-40C8-86AE-8C8A8EC7910D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="855" windowWidth="19230" windowHeight="12090" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="1710" yWindow="1200" windowWidth="15330" windowHeight="13815" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -440,6 +440,9 @@
                   <c:pt idx="36">
                     <c:v>147468.53343001686</c:v>
                   </c:pt>
+                  <c:pt idx="37">
+                    <c:v>151055.68613097622</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -560,6 +563,9 @@
                   <c:pt idx="36">
                     <c:v>147468.53343001686</c:v>
                   </c:pt>
+                  <c:pt idx="37">
+                    <c:v>151055.68613097622</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -694,6 +700,9 @@
                 <c:pt idx="36">
                   <c:v>45270</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>45278</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -813,6 +822,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>908117</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>916125.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9111,15 +9123,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
+      <xdr:colOff>523876</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>64996</xdr:rowOff>
+      <xdr:rowOff>26896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9810,21 +9822,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0C3A37-78ED-4113-9465-0FC068733B9F}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="17" customWidth="1"/>
     <col min="5" max="6" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="14" t="s">
         <v>11</v>
@@ -9842,7 +9854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>44979.791666666664</v>
       </c>
@@ -9865,7 +9877,7 @@
         <v>1511.7424598056805</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>44986.791666666664</v>
       </c>
@@ -9888,7 +9900,7 @@
         <v>2336.5238988524484</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>44993.791666666664</v>
       </c>
@@ -9911,7 +9923,7 @@
         <v>496.96036796483975</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45000.833333333336</v>
       </c>
@@ -9934,7 +9946,7 @@
         <v>3932.6749036909737</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45007.833333333336</v>
       </c>
@@ -9957,7 +9969,7 @@
         <v>678.5824936173874</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45014.833333333336</v>
       </c>
@@ -9980,7 +9992,7 @@
         <v>1518.0286270837319</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45021.833333333336</v>
       </c>
@@ -10003,7 +10015,7 @@
         <v>2480.3046274135136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45028.833333333336</v>
       </c>
@@ -10026,7 +10038,7 @@
         <v>6875.1302082550401</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45035.833333333336</v>
       </c>
@@ -10049,7 +10061,7 @@
         <v>1771.8443654020425</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45042.833333333336</v>
       </c>
@@ -10071,8 +10083,9 @@
         <f t="shared" si="2"/>
         <v>1590.8017757030664</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45049.833333333336</v>
       </c>
@@ -10095,7 +10108,7 @@
         <v>879.04229979705406</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45056.833333333336</v>
       </c>
@@ -10118,7 +10131,7 @@
         <v>3734.9429344455007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45063.833333333336</v>
       </c>
@@ -10141,7 +10154,7 @@
         <v>11295.937636522629</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45070.833333333336</v>
       </c>
@@ -10164,7 +10177,7 @@
         <v>14556.21551986413</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45077.833333333336</v>
       </c>
@@ -10187,7 +10200,7 @@
         <v>19394.434590990273</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>45085</v>
       </c>
@@ -10204,7 +10217,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>45093</v>
       </c>
@@ -10221,7 +10234,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>45100</v>
       </c>
@@ -10238,7 +10251,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>45107</v>
       </c>
@@ -10259,7 +10272,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>45117</v>
       </c>
@@ -10270,20 +10283,20 @@
         <v>787058</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" ref="D21:D38" si="3">AVERAGE(B21:C21)</f>
+        <f t="shared" ref="D21:D39" si="3">AVERAGE(B21:C21)</f>
         <v>744719.5</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" ref="E21:E38" si="4">STDEV(B21:C21)*2</f>
+        <f t="shared" ref="E21:E39" si="4">STDEV(B21:C21)*2</f>
         <v>119751.36182106657</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21:F38" si="5">STDEV(B21:C21)</f>
+        <f t="shared" ref="F21:F39" si="5">STDEV(B21:C21)</f>
         <v>59875.680910533287</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>45124</v>
       </c>
@@ -10306,7 +10319,7 @@
         <v>64914.52383326862</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>45131</v>
       </c>
@@ -10329,7 +10342,7 @@
         <v>72276.919638982959</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>45140</v>
       </c>
@@ -10352,7 +10365,7 @@
         <v>76467.234424294438</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>45146</v>
       </c>
@@ -10376,7 +10389,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>45166</v>
       </c>
@@ -10399,7 +10412,7 @@
         <v>94371.178123937818</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>45170</v>
       </c>
@@ -10423,7 +10436,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>45176</v>
       </c>
@@ -10446,7 +10459,7 @@
         <v>102058.13594221677</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>45183</v>
       </c>
@@ -10469,7 +10482,7 @@
         <v>106693.92799967578</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>45201</v>
       </c>
@@ -10492,7 +10505,7 @@
         <v>113528.11503984376</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>45217</v>
       </c>
@@ -10516,7 +10529,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>45225</v>
       </c>
@@ -10539,7 +10552,7 @@
         <v>124616.9635824112</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>45231</v>
       </c>
@@ -10562,7 +10575,7 @@
         <v>125741.26336449782</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>45236</v>
       </c>
@@ -10585,7 +10598,7 @@
         <v>127511.15163780774</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>45245</v>
       </c>
@@ -10608,7 +10621,7 @@
         <v>131629.3415314382</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>45261</v>
       </c>
@@ -10631,7 +10644,7 @@
         <v>142996.08303901195</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>45265</v>
       </c>
@@ -10654,7 +10667,7 @@
         <v>145492.87708338164</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>45270</v>
       </c>
@@ -10676,190 +10689,207 @@
         <f t="shared" si="5"/>
         <v>147468.53343001686</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>45278</v>
+      </c>
+      <c r="B39" s="15">
+        <v>809313</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1022938</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="3"/>
+        <v>916125.5</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="4"/>
+        <v>302111.37226195243</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="5"/>
+        <v>151055.68613097622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="21"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="21"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="21"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="21"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="21"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="21"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="21"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="21"/>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="21"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="21"/>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="21"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="21"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="21"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="21"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="21"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
       <c r="D65" s="21"/>
@@ -10878,26 +10908,26 @@
   <dimension ref="B2:Z187"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="8" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="8" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10911,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -10925,7 +10955,7 @@
         <v>438000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -10940,7 +10970,7 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -10955,7 +10985,7 @@
         <v>539000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -10970,7 +11000,7 @@
         <v>556000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -10985,7 +11015,7 @@
         <v>569000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -10999,648 +11029,649 @@
       <c r="E8" s="2">
         <v>584000</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
     </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K28" s="2"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
       <c r="Y167" s="6"/>
       <c r="Z167" s="7"/>
     </row>
-    <row r="168" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
       <c r="Y168" s="6"/>
       <c r="Z168" s="7"/>
     </row>
-    <row r="169" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
       <c r="Y169" s="6"/>
       <c r="Z169" s="7"/>
     </row>
-    <row r="170" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
       <c r="Y170" s="6"/>
       <c r="Z170" s="7"/>
     </row>
-    <row r="171" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
       <c r="Y171" s="6"/>
       <c r="Z171" s="7"/>
     </row>
-    <row r="172" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
       <c r="Y172" s="6"/>
       <c r="Z172" s="7"/>
     </row>
-    <row r="173" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="7"/>
     </row>
-    <row r="174" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
       <c r="Y182" s="2"/>
     </row>
-    <row r="183" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
     </row>
@@ -11660,15 +11691,15 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11682,7 +11713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -11696,7 +11727,7 @@
         <v>438000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -11711,7 +11742,7 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -11726,7 +11757,7 @@
         <v>539000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -11741,7 +11772,7 @@
         <v>556000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -11756,7 +11787,7 @@
         <v>569000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -11771,624 +11802,624 @@
         <v>584000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I28" s="2"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" s="6"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" s="6"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="6"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" s="6"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="6"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" s="6"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" s="6"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" s="6"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" s="6"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" s="6"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" s="6"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" s="6"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" s="6"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" s="6"/>
       <c r="D188" s="7"/>
     </row>
@@ -12408,25 +12439,25 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12440,7 +12471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -12454,7 +12485,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <f>(C5-C4)/7</f>
         <v>4.2857142857142856</v>
@@ -12469,7 +12500,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <f>(C6-C5)/7+B5</f>
         <v>8.7142857142857153</v>
@@ -12484,7 +12515,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <f t="shared" ref="B7:B10" si="0">(C7-C6)/7+B6</f>
         <v>13.142857142857144</v>
@@ -12499,7 +12530,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>17.142857142857146</v>
@@ -12514,7 +12545,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>21.571428571428577</v>
@@ -12535,7 +12566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>47.714285714285722</v>
@@ -12558,7 +12589,7 @@
         <v>2.2914410879999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>(C11-C4+7)/7</f>
         <v>70.285714285714292</v>
@@ -12581,7 +12612,7 @@
         <v>-5.1743121555555611E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>(C12-C4+7)/7</f>
         <v>122.42857142857143</v>
@@ -12604,7 +12635,7 @@
         <v>-0.19130921649999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>(C13-C4+7)/7</f>
         <v>126.85714285714286</v>
@@ -12627,7 +12658,7 @@
         <v>-0.25919076641080624</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" cm="1">
         <f t="array" ref="C36:D36">LINEST(E4:E9,D4:D9)</f>
         <v>9.9142047621025462</v>

--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A308B796-957B-40C8-86AE-8C8A8EC7910D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D6C7F-E1AD-49C2-BFF1-FAE4F09020CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1200" windowWidth="15330" windowHeight="13815" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="330" yWindow="270" windowWidth="17760" windowHeight="12765" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -443,6 +443,9 @@
                   <c:pt idx="37">
                     <c:v>151055.68613097622</c:v>
                   </c:pt>
+                  <c:pt idx="38">
+                    <c:v>161815.02291351074</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -566,6 +569,9 @@
                   <c:pt idx="37">
                     <c:v>151055.68613097622</c:v>
                   </c:pt>
+                  <c:pt idx="38">
+                    <c:v>161815.02291351074</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -703,6 +709,9 @@
                 <c:pt idx="37">
                   <c:v>45278</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>45287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -825,6 +834,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>916125.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>937794.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9822,8 +9834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0C3A37-78ED-4113-9465-0FC068733B9F}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10283,15 +10295,15 @@
         <v>787058</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" ref="D21:D39" si="3">AVERAGE(B21:C21)</f>
+        <f t="shared" ref="D21:D40" si="3">AVERAGE(B21:C21)</f>
         <v>744719.5</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" ref="E21:E39" si="4">STDEV(B21:C21)*2</f>
+        <f t="shared" ref="E21:E40" si="4">STDEV(B21:C21)*2</f>
         <v>119751.36182106657</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21:F39" si="5">STDEV(B21:C21)</f>
+        <f t="shared" ref="F21:F40" si="5">STDEV(B21:C21)</f>
         <v>59875.680910533287</v>
       </c>
       <c r="H21" s="4"/>
@@ -10715,11 +10727,27 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="A40" s="11">
+        <v>45287</v>
+      </c>
+      <c r="B40" s="19">
+        <v>823374</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1052215</v>
+      </c>
+      <c r="D40" s="18">
+        <f t="shared" si="3"/>
+        <v>937794.5</v>
+      </c>
+      <c r="E40" s="19">
+        <f t="shared" si="4"/>
+        <v>323630.04582702147</v>
+      </c>
+      <c r="F40" s="19">
+        <f t="shared" si="5"/>
+        <v>161815.02291351074</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="20"/>

--- a/PS VR2 Sales Estimate.xlsx
+++ b/PS VR2 Sales Estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledb\Dropbox (Personal)\Alex\Programming in Python\estimate-PSVR2-sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D6C7F-E1AD-49C2-BFF1-FAE4F09020CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367114C0-59E5-4C40-87E2-2072BA726064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="270" windowWidth="17760" windowHeight="12765" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64125413-A5F6-4236-BA19-5C5D6C780758}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated PS VR2 Sales" sheetId="5" r:id="rId1"/>
@@ -446,6 +446,12 @@
                   <c:pt idx="38">
                     <c:v>161815.02291351074</c:v>
                   </c:pt>
+                  <c:pt idx="39">
+                    <c:v>165209.13546320616</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>174399.40229828772</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
@@ -572,6 +578,12 @@
                   <c:pt idx="38">
                     <c:v>161815.02291351074</c:v>
                   </c:pt>
+                  <c:pt idx="39">
+                    <c:v>165209.13546320616</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>174399.40229828772</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -712,6 +724,12 @@
                 <c:pt idx="38">
                   <c:v>45287</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45298</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -837,6 +855,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>937794.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>949547.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>962613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9835,7 +9859,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10295,15 +10319,15 @@
         <v>787058</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" ref="D21:D40" si="3">AVERAGE(B21:C21)</f>
+        <f t="shared" ref="D21:D42" si="3">AVERAGE(B21:C21)</f>
         <v>744719.5</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" ref="E21:E40" si="4">STDEV(B21:C21)*2</f>
+        <f t="shared" ref="E21:E42" si="4">STDEV(B21:C21)*2</f>
         <v>119751.36182106657</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21:F40" si="5">STDEV(B21:C21)</f>
+        <f t="shared" ref="F21:F42" si="5">STDEV(B21:C21)</f>
         <v>59875.680910533287</v>
       </c>
       <c r="H21" s="4"/>
@@ -10750,18 +10774,50 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="A41" s="11">
+        <v>45292</v>
+      </c>
+      <c r="B41" s="15">
+        <v>832727</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1066368</v>
+      </c>
+      <c r="D41" s="18">
+        <f t="shared" si="3"/>
+        <v>949547.5</v>
+      </c>
+      <c r="E41" s="19">
+        <f t="shared" si="4"/>
+        <v>330418.27092641231</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="5"/>
+        <v>165209.13546320616</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="A42" s="11">
+        <v>45298</v>
+      </c>
+      <c r="B42" s="19">
+        <v>839294</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1085932</v>
+      </c>
+      <c r="D42" s="18">
+        <f t="shared" si="3"/>
+        <v>962613</v>
+      </c>
+      <c r="E42" s="19">
+        <f t="shared" si="4"/>
+        <v>348798.80459657544</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="5"/>
+        <v>174399.40229828772</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="20"/>
